--- a/output/1Y_P79_KFSDIV.xlsx
+++ b/output/1Y_P79_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.8241</v>
       </c>
       <c r="C2" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D2" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.2543</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E3" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="F3" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="H3" s="1">
-        <v>10397.4464</v>
+        <v>10355.8981</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10397.4464</v>
+        <v>10355.8981</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0397</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>10.5675</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E4" s="1">
-        <v>1812.4136</v>
+        <v>1808.7844</v>
       </c>
       <c r="F4" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="H4" s="1">
-        <v>19152.6808</v>
+        <v>19076.164</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19152.6808</v>
+        <v>19076.164</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.035</v>
+        <v>11.0571</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>249.4434</v>
+        <v>248.9443</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9750.5566</v>
+        <v>-9751.055700000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.061</v>
+        <v>-0.0629</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E5" s="1">
-        <v>2758.7023</v>
+        <v>2753.1874</v>
       </c>
       <c r="F5" s="1">
-        <v>1006.0917</v>
+        <v>1004.0713</v>
       </c>
       <c r="H5" s="1">
-        <v>27495.9854</v>
+        <v>27386.2306</v>
       </c>
       <c r="I5" s="1">
-        <v>249.4434</v>
+        <v>248.9443</v>
       </c>
       <c r="J5" s="1">
-        <v>27745.4288</v>
+        <v>27635.1749</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.8747</v>
+        <v>10.8965</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10027.7159</v>
+        <v>-10027.6605</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0483</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.0064</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E6" s="1">
-        <v>3764.794</v>
+        <v>3757.2588</v>
       </c>
       <c r="F6" s="1">
-        <v>1002.1302</v>
+        <v>1000.1157</v>
       </c>
       <c r="H6" s="1">
-        <v>37672.0343</v>
+        <v>37521.4889</v>
       </c>
       <c r="I6" s="1">
-        <v>221.7274</v>
+        <v>221.2838</v>
       </c>
       <c r="J6" s="1">
-        <v>37893.7617</v>
+        <v>37742.7727</v>
       </c>
       <c r="K6" s="1">
-        <v>40027.7159</v>
+        <v>40027.6605</v>
       </c>
       <c r="L6" s="1">
-        <v>10.6321</v>
+        <v>10.6534</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10027.7159</v>
+        <v>-10027.6605</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0039</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>10.0129</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E7" s="1">
-        <v>4766.9242</v>
+        <v>4757.3745</v>
       </c>
       <c r="F7" s="1">
-        <v>1001.4797</v>
+        <v>999.4678</v>
       </c>
       <c r="H7" s="1">
-        <v>47730.7352</v>
+        <v>47539.9676</v>
       </c>
       <c r="I7" s="1">
-        <v>194.0115</v>
+        <v>193.6233</v>
       </c>
       <c r="J7" s="1">
-        <v>47924.7467</v>
+        <v>47733.591</v>
       </c>
       <c r="K7" s="1">
-        <v>50055.4319</v>
+        <v>50055.321</v>
       </c>
       <c r="L7" s="1">
-        <v>10.5006</v>
+        <v>10.5216</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>1016.4944</v>
+        <v>1014.4599</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9011.221600000001</v>
+        <v>-9013.2006</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.4583</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E8" s="1">
-        <v>5768.4039</v>
+        <v>5756.8423</v>
       </c>
       <c r="F8" s="1">
-        <v>975.0276</v>
+        <v>973.0361</v>
       </c>
       <c r="H8" s="1">
-        <v>60327.6982</v>
+        <v>60086.4659</v>
       </c>
       <c r="I8" s="1">
-        <v>1182.7899</v>
+        <v>1180.4227</v>
       </c>
       <c r="J8" s="1">
-        <v>61510.4882</v>
+        <v>61266.8886</v>
       </c>
       <c r="K8" s="1">
-        <v>60083.1478</v>
+        <v>60082.9814</v>
       </c>
       <c r="L8" s="1">
-        <v>10.4159</v>
+        <v>10.4368</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10197.1317</v>
+        <v>-10196.7371</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0619</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.3341</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E9" s="1">
-        <v>6743.4315</v>
+        <v>6729.8784</v>
       </c>
       <c r="F9" s="1">
-        <v>986.746</v>
+        <v>984.7353000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>69687.2957</v>
+        <v>69407.9278</v>
       </c>
       <c r="I9" s="1">
-        <v>985.6583000000001</v>
+        <v>983.6856</v>
       </c>
       <c r="J9" s="1">
-        <v>70672.954</v>
+        <v>70391.6134</v>
       </c>
       <c r="K9" s="1">
-        <v>70280.2794</v>
+        <v>70279.71859999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.422</v>
+        <v>10.4429</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10197.1317</v>
+        <v>-10196.7371</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0117</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7730.1775</v>
+        <v>7714.6137</v>
       </c>
       <c r="F10" s="1">
-        <v>1031.618</v>
+        <v>1029.5159</v>
       </c>
       <c r="H10" s="1">
-        <v>76409.71249999999</v>
+        <v>76103.12119999999</v>
       </c>
       <c r="I10" s="1">
-        <v>788.5266</v>
+        <v>786.9485</v>
       </c>
       <c r="J10" s="1">
-        <v>77198.2392</v>
+        <v>76890.06969999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80477.4111</v>
+        <v>80476.45570000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4108</v>
+        <v>10.4317</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>3034.5442</v>
+        <v>3028.4453</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7162.5875</v>
+        <v>-7168.2918</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0431</v>
+        <v>-0.0436</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D11" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8761.7955</v>
+        <v>8744.1296</v>
       </c>
       <c r="F11" s="1">
-        <v>1124.5193</v>
+        <v>1122.0244</v>
       </c>
       <c r="H11" s="1">
-        <v>87333.197</v>
+        <v>86983.10340000001</v>
       </c>
       <c r="I11" s="1">
-        <v>3625.9392</v>
+        <v>3618.6566</v>
       </c>
       <c r="J11" s="1">
-        <v>90959.13619999999</v>
+        <v>90601.7601</v>
       </c>
       <c r="K11" s="1">
-        <v>90674.5428</v>
+        <v>90673.1928</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3489</v>
+        <v>10.3696</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11208.6464</v>
+        <v>-11206.2189</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0431</v>
+        <v>0.0427</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.4908</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E12" s="1">
-        <v>9886.314899999999</v>
+        <v>9866.154</v>
       </c>
       <c r="F12" s="1">
-        <v>1068.4263</v>
+        <v>1066.0609</v>
       </c>
       <c r="H12" s="1">
-        <v>103715.352</v>
+        <v>103296.6592</v>
       </c>
       <c r="I12" s="1">
-        <v>2417.2928</v>
+        <v>2412.4378</v>
       </c>
       <c r="J12" s="1">
-        <v>106132.6448</v>
+        <v>105709.0969</v>
       </c>
       <c r="K12" s="1">
-        <v>101883.1892</v>
+        <v>101879.4117</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3055</v>
+        <v>10.3262</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11208.6464</v>
+        <v>-11206.2189</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0512</v>
+        <v>0.0508</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.6308</v>
       </c>
       <c r="C13" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D13" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E13" s="1">
-        <v>10954.7411</v>
+        <v>10932.2149</v>
       </c>
       <c r="F13" s="1">
-        <v>1054.3559</v>
+        <v>1052.0197</v>
       </c>
       <c r="H13" s="1">
-        <v>116457.6621</v>
+        <v>115985.3339</v>
       </c>
       <c r="I13" s="1">
-        <v>1208.6464</v>
+        <v>1206.2189</v>
       </c>
       <c r="J13" s="1">
-        <v>117666.3085</v>
+        <v>117191.5528</v>
       </c>
       <c r="K13" s="1">
-        <v>113091.8355</v>
+        <v>113085.6306</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3236</v>
+        <v>10.3443</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11208.6464</v>
+        <v>-11206.2189</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0132</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.3176</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E14" s="1">
-        <v>12009.097</v>
+        <v>11984.2346</v>
       </c>
       <c r="F14" s="1">
-        <v>-12009.097</v>
+        <v>-11984.2346</v>
       </c>
       <c r="H14" s="1">
-        <v>123905.0593</v>
+        <v>123401.6634</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>123905.0593</v>
+        <v>123401.6634</v>
       </c>
       <c r="K14" s="1">
-        <v>124300.4819</v>
+        <v>124291.8494</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3505</v>
+        <v>10.3713</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123905.0593</v>
+        <v>123401.6634</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0295</v>
+        <v>-0.0298</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.8241</v>
       </c>
       <c r="C2" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D2" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.2543</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E3" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="F3" s="1">
-        <v>853.2342</v>
+        <v>858.6426</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10397.4464</v>
+        <v>10355.8981</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10397.4464</v>
+        <v>10355.8981</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9602.553599999999</v>
+        <v>-9682.8266</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0397</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>10.5675</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E4" s="1">
-        <v>1777.0985</v>
+        <v>1780.6585</v>
       </c>
       <c r="F4" s="1">
-        <v>983.8986</v>
+        <v>974.3569</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18779.4887</v>
+        <v>18779.5367</v>
       </c>
       <c r="I4" s="1">
-        <v>397.4464</v>
+        <v>317.1734</v>
       </c>
       <c r="J4" s="1">
-        <v>19176.9352</v>
+        <v>19096.71</v>
       </c>
       <c r="K4" s="1">
-        <v>19602.5536</v>
+        <v>19682.8266</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0307</v>
+        <v>11.0537</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>249.4434</v>
+        <v>248.9443</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10148.0031</v>
+        <v>-10068.2291</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0598</v>
+        <v>-0.0619</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E5" s="1">
-        <v>2760.9971</v>
+        <v>2755.0154</v>
       </c>
       <c r="F5" s="1">
-        <v>1028.3379</v>
+        <v>1026.2285</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>27518.858</v>
+        <v>27404.414</v>
       </c>
       <c r="I5" s="1">
-        <v>249.4434</v>
+        <v>248.9443</v>
       </c>
       <c r="J5" s="1">
-        <v>27768.3014</v>
+        <v>27653.3583</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.8656</v>
+        <v>10.8892</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10249.4434</v>
+        <v>-10248.9443</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0483</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.0064</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E6" s="1">
-        <v>3789.3349</v>
+        <v>3781.244</v>
       </c>
       <c r="F6" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>37917.6012</v>
+        <v>37761.0146</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37917.6012</v>
+        <v>37761.0146</v>
       </c>
       <c r="K6" s="1">
-        <v>40249.4434</v>
+        <v>40248.9443</v>
       </c>
       <c r="L6" s="1">
-        <v>10.6218</v>
+        <v>10.6444</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.004</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>10.0129</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E7" s="1">
-        <v>4788.6954</v>
+        <v>4778.601</v>
       </c>
       <c r="F7" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>47948.7277</v>
+        <v>47752.0815</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47948.7277</v>
+        <v>47752.0815</v>
       </c>
       <c r="K7" s="1">
-        <v>50249.4434</v>
+        <v>50248.9443</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4933</v>
+        <v>10.5154</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>1023.1204</v>
+        <v>1020.9359</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8976.8796</v>
+        <v>-8979.0641</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.4583</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E8" s="1">
-        <v>5787.407</v>
+        <v>5775.3118</v>
       </c>
       <c r="F8" s="1">
-        <v>905.8414</v>
+        <v>931.3393</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60526.4388</v>
+        <v>60279.2395</v>
       </c>
       <c r="I8" s="1">
-        <v>1023.1204</v>
+        <v>1020.9359</v>
       </c>
       <c r="J8" s="1">
-        <v>61549.5592</v>
+        <v>61300.1754</v>
       </c>
       <c r="K8" s="1">
-        <v>60249.4434</v>
+        <v>60248.9443</v>
       </c>
       <c r="L8" s="1">
-        <v>10.4104</v>
+        <v>10.4322</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9473.5612</v>
+        <v>-9759.783600000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0621</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.3341</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E9" s="1">
-        <v>6693.2484</v>
+        <v>6706.6511</v>
       </c>
       <c r="F9" s="1">
-        <v>1048.1127</v>
+        <v>1050.2477</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>69168.6985</v>
+        <v>69168.3753</v>
       </c>
       <c r="I9" s="1">
-        <v>1549.5592</v>
+        <v>1261.1523</v>
       </c>
       <c r="J9" s="1">
-        <v>70718.25780000001</v>
+        <v>70429.5275</v>
       </c>
       <c r="K9" s="1">
-        <v>69723.0046</v>
+        <v>70008.7279</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4169</v>
+        <v>10.4387</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10831.3015</v>
+        <v>-10875.105</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0116</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7741.3611</v>
+        <v>7756.8988</v>
       </c>
       <c r="F10" s="1">
-        <v>1084.3391</v>
+        <v>1048.6296</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>76520.2582</v>
+        <v>76520.2552</v>
       </c>
       <c r="I10" s="1">
-        <v>718.2578</v>
+        <v>386.0473</v>
       </c>
       <c r="J10" s="1">
-        <v>77238.516</v>
+        <v>76906.30250000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80554.306</v>
+        <v>80883.83289999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4057</v>
+        <v>10.4273</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>3011.9618</v>
+        <v>3017.993</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7706.296</v>
+        <v>-7368.0543</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0431</v>
+        <v>-0.0438</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D11" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8825.700199999999</v>
+        <v>8805.528399999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1206.9058</v>
+        <v>1247.1476</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87970.16650000001</v>
+        <v>87593.87450000001</v>
       </c>
       <c r="I11" s="1">
-        <v>3011.9618</v>
+        <v>3017.993</v>
       </c>
       <c r="J11" s="1">
-        <v>90982.1283</v>
+        <v>90611.86749999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91272.5638</v>
+        <v>91269.8802</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3417</v>
+        <v>10.3651</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12029.8335</v>
+        <v>-12455.8867</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0429</v>
+        <v>0.0426</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.4908</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E12" s="1">
-        <v>10032.606</v>
+        <v>10052.676</v>
       </c>
       <c r="F12" s="1">
-        <v>452.7717</v>
+        <v>453.7329</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>105250.0627</v>
+        <v>105249.5074</v>
       </c>
       <c r="I12" s="1">
-        <v>982.1283</v>
+        <v>562.1063</v>
       </c>
       <c r="J12" s="1">
-        <v>106232.191</v>
+        <v>105811.6137</v>
       </c>
       <c r="K12" s="1">
-        <v>103302.3973</v>
+        <v>103725.7668</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2967</v>
+        <v>10.3182</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-4749.9373</v>
+        <v>-4769.5494</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.052</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.6308</v>
       </c>
       <c r="C13" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D13" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E13" s="1">
-        <v>10485.3777</v>
+        <v>10506.4089</v>
       </c>
       <c r="F13" s="1">
-        <v>802.5780999999999</v>
+        <v>804.2089</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>111467.9529</v>
+        <v>111467.7453</v>
       </c>
       <c r="I13" s="1">
-        <v>6232.191</v>
+        <v>5792.5569</v>
       </c>
       <c r="J13" s="1">
-        <v>117700.1439</v>
+        <v>117260.3023</v>
       </c>
       <c r="K13" s="1">
-        <v>108052.3346</v>
+        <v>108495.3162</v>
       </c>
       <c r="L13" s="1">
-        <v>10.305</v>
+        <v>10.3266</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8532.0471</v>
+        <v>-8566.513999999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0126</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.3176</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E14" s="1">
-        <v>11287.9558</v>
+        <v>11310.6178</v>
       </c>
       <c r="F14" s="1">
-        <v>-11287.9558</v>
+        <v>-11310.6178</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116464.6123</v>
+        <v>116465.4319</v>
       </c>
       <c r="I14" s="1">
-        <v>7700.1439</v>
+        <v>7226.043</v>
       </c>
       <c r="J14" s="1">
-        <v>124164.7561</v>
+        <v>123691.4749</v>
       </c>
       <c r="K14" s="1">
-        <v>116584.3817</v>
+        <v>117061.8302</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3282</v>
+        <v>10.3497</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116464.6123</v>
+        <v>116465.4319</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0277</v>
+        <v>-0.028</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.8241</v>
       </c>
       <c r="C2" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D2" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>11.2543</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E3" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="F3" s="1">
-        <v>857.6769</v>
+        <v>863.0942</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10397.4464</v>
+        <v>10355.8981</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10397.4464</v>
+        <v>10355.8981</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9652.553599999999</v>
+        <v>-9733.027400000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0397</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>10.5675</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E4" s="1">
-        <v>1781.5413</v>
+        <v>1785.1101</v>
       </c>
       <c r="F4" s="1">
-        <v>979.1671</v>
+        <v>969.616</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18826.4375</v>
+        <v>18826.4855</v>
       </c>
       <c r="I4" s="1">
-        <v>347.4464</v>
+        <v>266.9726</v>
       </c>
       <c r="J4" s="1">
-        <v>19173.8839</v>
+        <v>19093.4581</v>
       </c>
       <c r="K4" s="1">
-        <v>19652.5536</v>
+        <v>19733.0274</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0312</v>
+        <v>11.0542</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>249.4434</v>
+        <v>248.9443</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10098.0031</v>
+        <v>-10018.0283</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.06</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E5" s="1">
-        <v>2760.7084</v>
+        <v>2754.7261</v>
       </c>
       <c r="F5" s="1">
-        <v>1028.3379</v>
+        <v>1026.2285</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>27515.9806</v>
+        <v>27401.536</v>
       </c>
       <c r="I5" s="1">
-        <v>249.4434</v>
+        <v>248.9443</v>
       </c>
       <c r="J5" s="1">
-        <v>27765.424</v>
+        <v>27650.4803</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.8668</v>
+        <v>10.8904</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10249.4434</v>
+        <v>-10248.9443</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0483</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.0064</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E6" s="1">
-        <v>3789.0462</v>
+        <v>3780.9546</v>
       </c>
       <c r="F6" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>37914.7124</v>
+        <v>37758.1253</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37914.7124</v>
+        <v>37758.1253</v>
       </c>
       <c r="K6" s="1">
-        <v>40249.4434</v>
+        <v>40248.9443</v>
       </c>
       <c r="L6" s="1">
-        <v>10.6226</v>
+        <v>10.6452</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.004</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>10.0129</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E7" s="1">
-        <v>4788.4067</v>
+        <v>4778.3116</v>
       </c>
       <c r="F7" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>47945.837</v>
+        <v>47749.1903</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47945.837</v>
+        <v>47749.1903</v>
       </c>
       <c r="K7" s="1">
-        <v>50249.4434</v>
+        <v>50248.9443</v>
       </c>
       <c r="L7" s="1">
-        <v>10.494</v>
+        <v>10.516</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>1023.0425</v>
+        <v>1020.8577</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8976.9575</v>
+        <v>-8979.1423</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.4583</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E8" s="1">
-        <v>5787.1183</v>
+        <v>5775.0225</v>
       </c>
       <c r="F8" s="1">
-        <v>1007.3697</v>
+        <v>1033.0709</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>60523.4195</v>
+        <v>60276.2197</v>
       </c>
       <c r="I8" s="1">
-        <v>1023.0425</v>
+        <v>1020.8577</v>
       </c>
       <c r="J8" s="1">
-        <v>61546.462</v>
+        <v>61297.0774</v>
       </c>
       <c r="K8" s="1">
-        <v>60249.4434</v>
+        <v>60248.9443</v>
       </c>
       <c r="L8" s="1">
-        <v>10.411</v>
+        <v>10.4327</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10535.3744</v>
+        <v>-10825.8599</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0621</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.3341</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E9" s="1">
-        <v>6794.488</v>
+        <v>6808.0934</v>
       </c>
       <c r="F9" s="1">
-        <v>1014.8603</v>
+        <v>984.5673</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>70214.9185</v>
+        <v>70214.5903</v>
       </c>
       <c r="I9" s="1">
-        <v>487.6681</v>
+        <v>194.9979</v>
       </c>
       <c r="J9" s="1">
-        <v>70702.5866</v>
+        <v>70409.5882</v>
       </c>
       <c r="K9" s="1">
-        <v>70784.8177</v>
+        <v>71074.8042</v>
       </c>
       <c r="L9" s="1">
-        <v>10.418</v>
+        <v>10.4398</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10487.6681</v>
+        <v>-10194.9979</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0118</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7809.3483</v>
+        <v>7792.6607</v>
       </c>
       <c r="F10" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>77192.28449999999</v>
+        <v>76873.0395</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77192.28449999999</v>
+        <v>76873.0395</v>
       </c>
       <c r="K10" s="1">
-        <v>81272.4859</v>
+        <v>81269.802</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4071</v>
+        <v>10.429</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>3057.5196</v>
+        <v>3063.642</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6942.4804</v>
+        <v>-6936.358</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0435</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D11" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8821.0231</v>
+        <v>8802.313</v>
       </c>
       <c r="F11" s="1">
-        <v>1310.0095</v>
+        <v>1307.9992</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>87923.54730000001</v>
+        <v>87561.8888</v>
       </c>
       <c r="I11" s="1">
-        <v>3057.5196</v>
+        <v>3063.642</v>
       </c>
       <c r="J11" s="1">
-        <v>90981.06690000001</v>
+        <v>90625.53079999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91272.4859</v>
+        <v>91269.802</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3472</v>
+        <v>10.3688</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-13057.5196</v>
+        <v>-13063.642</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0435</v>
+        <v>0.0432</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.4908</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E12" s="1">
-        <v>10131.0325</v>
+        <v>10110.3122</v>
       </c>
       <c r="F12" s="1">
-        <v>620.4512</v>
+        <v>662.7365</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>106282.6363</v>
+        <v>105852.9467</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>106282.6363</v>
+        <v>105852.9467</v>
       </c>
       <c r="K12" s="1">
-        <v>104330.0055</v>
+        <v>104333.4441</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2981</v>
+        <v>10.3195</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6509.0291</v>
+        <v>-6966.5537</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0525</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.6308</v>
       </c>
       <c r="C13" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D13" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E13" s="1">
-        <v>10751.4837</v>
+        <v>10773.0487</v>
       </c>
       <c r="F13" s="1">
-        <v>852.1231</v>
+        <v>853.8539</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>114296.8731</v>
+        <v>114296.6603</v>
       </c>
       <c r="I13" s="1">
-        <v>3490.9709</v>
+        <v>3033.4463</v>
       </c>
       <c r="J13" s="1">
-        <v>117787.844</v>
+        <v>117330.1066</v>
       </c>
       <c r="K13" s="1">
-        <v>110839.0346</v>
+        <v>111299.9977</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3092</v>
+        <v>10.3313</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9058.750599999999</v>
+        <v>-9095.337600000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0129</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.3176</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E14" s="1">
-        <v>11603.6069</v>
+        <v>11626.9027</v>
       </c>
       <c r="F14" s="1">
-        <v>-11603.6069</v>
+        <v>-11626.9027</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119721.3741</v>
+        <v>119722.2166</v>
       </c>
       <c r="I14" s="1">
-        <v>4432.2203</v>
+        <v>3938.1087</v>
       </c>
       <c r="J14" s="1">
-        <v>124153.5943</v>
+        <v>123660.3254</v>
       </c>
       <c r="K14" s="1">
-        <v>119897.7852</v>
+        <v>120395.3353</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3328</v>
+        <v>10.3549</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119721.3741</v>
+        <v>119722.2166</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0284</v>
+        <v>-0.0288</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.8241</v>
       </c>
       <c r="C2" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D2" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>11.2543</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E3" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="F3" s="1">
-        <v>862.1197</v>
+        <v>867.5459</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10397.4464</v>
+        <v>10355.8981</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10397.4464</v>
+        <v>10355.8981</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9702.553599999999</v>
+        <v>-9783.2282</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0397</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>10.5675</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E4" s="1">
-        <v>1785.984</v>
+        <v>1789.5618</v>
       </c>
       <c r="F4" s="1">
-        <v>974.4357</v>
+        <v>964.875</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18873.3862</v>
+        <v>18873.4344</v>
       </c>
       <c r="I4" s="1">
-        <v>297.4464</v>
+        <v>216.7718</v>
       </c>
       <c r="J4" s="1">
-        <v>19170.8326</v>
+        <v>19090.2062</v>
       </c>
       <c r="K4" s="1">
-        <v>19702.5536</v>
+        <v>19783.2282</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0318</v>
+        <v>11.0548</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>249.4434</v>
+        <v>248.9443</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10048.0031</v>
+        <v>-9967.827499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0601</v>
+        <v>-0.0622</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E5" s="1">
-        <v>2760.4197</v>
+        <v>2754.4368</v>
       </c>
       <c r="F5" s="1">
-        <v>1028.3379</v>
+        <v>1026.2285</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>27513.1031</v>
+        <v>27398.658</v>
       </c>
       <c r="I5" s="1">
-        <v>249.4434</v>
+        <v>248.9443</v>
       </c>
       <c r="J5" s="1">
-        <v>27762.5465</v>
+        <v>27647.6023</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.8679</v>
+        <v>10.8915</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10249.4434</v>
+        <v>-10248.9443</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0483</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.0064</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E6" s="1">
-        <v>3788.7576</v>
+        <v>3780.6653</v>
       </c>
       <c r="F6" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>37911.8236</v>
+        <v>37755.2359</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37911.8236</v>
+        <v>37755.2359</v>
       </c>
       <c r="K6" s="1">
-        <v>40249.4434</v>
+        <v>40248.9443</v>
       </c>
       <c r="L6" s="1">
-        <v>10.6234</v>
+        <v>10.646</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.004</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>10.0129</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E7" s="1">
-        <v>4788.118</v>
+        <v>4778.0223</v>
       </c>
       <c r="F7" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>47942.9463</v>
+        <v>47746.2991</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47942.9463</v>
+        <v>47746.2991</v>
       </c>
       <c r="K7" s="1">
-        <v>50249.4434</v>
+        <v>50248.9443</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4946</v>
+        <v>10.5167</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>1022.9645</v>
+        <v>1020.7796</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8977.0355</v>
+        <v>-8979.2204</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.4583</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E8" s="1">
-        <v>5786.8296</v>
+        <v>5774.7332</v>
       </c>
       <c r="F8" s="1">
-        <v>1053.992</v>
+        <v>1051.6714</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>60520.4002</v>
+        <v>60273.1998</v>
       </c>
       <c r="I8" s="1">
-        <v>1022.9645</v>
+        <v>1020.7796</v>
       </c>
       <c r="J8" s="1">
-        <v>61543.3648</v>
+        <v>61293.9795</v>
       </c>
       <c r="K8" s="1">
-        <v>60249.4434</v>
+        <v>60248.9443</v>
       </c>
       <c r="L8" s="1">
-        <v>10.4115</v>
+        <v>10.4332</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11022.9645</v>
+        <v>-11020.7796</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0621</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.3341</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E9" s="1">
-        <v>6840.8216</v>
+        <v>6826.4045</v>
       </c>
       <c r="F9" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70693.7347</v>
+        <v>70403.4403</v>
       </c>
       <c r="I9" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70693.7347</v>
+        <v>70403.4403</v>
       </c>
       <c r="K9" s="1">
-        <v>71272.40790000001</v>
+        <v>71269.7239</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4187</v>
+        <v>10.4403</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0119</v>
+        <v>-0.0125</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7808.4918</v>
+        <v>7792.1402</v>
       </c>
       <c r="F10" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>77183.8177</v>
+        <v>76867.9047</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77183.8177</v>
+        <v>76867.9047</v>
       </c>
       <c r="K10" s="1">
-        <v>81272.40790000001</v>
+        <v>81269.7239</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4082</v>
+        <v>10.4297</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>3078.3697</v>
+        <v>3071.882</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6921.6303</v>
+        <v>-6928.118</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0435</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D11" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8820.166499999999</v>
+        <v>8801.7925</v>
       </c>
       <c r="F11" s="1">
-        <v>1312.1013</v>
+        <v>1308.8242</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>87915.0095</v>
+        <v>87556.71090000001</v>
       </c>
       <c r="I11" s="1">
-        <v>3078.3697</v>
+        <v>3071.882</v>
       </c>
       <c r="J11" s="1">
-        <v>90993.3792</v>
+        <v>90628.5929</v>
       </c>
       <c r="K11" s="1">
-        <v>91272.40790000001</v>
+        <v>91269.7239</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3482</v>
+        <v>10.3694</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-13078.3697</v>
+        <v>-13071.882</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0437</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.4908</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E12" s="1">
-        <v>10132.2678</v>
+        <v>10110.6167</v>
       </c>
       <c r="F12" s="1">
-        <v>893.4258</v>
+        <v>937.1919</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>106295.595</v>
+        <v>105856.1349</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>106295.595</v>
+        <v>105856.1349</v>
       </c>
       <c r="K12" s="1">
-        <v>104350.7776</v>
+        <v>104341.606</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2989</v>
+        <v>10.32</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9372.751700000001</v>
+        <v>-9851.5738</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0525</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.6308</v>
       </c>
       <c r="C13" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D13" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E13" s="1">
-        <v>11025.6936</v>
+        <v>11047.8086</v>
       </c>
       <c r="F13" s="1">
-        <v>904.2674</v>
+        <v>906.1035000000001</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>117211.9438</v>
+        <v>117211.7255</v>
       </c>
       <c r="I13" s="1">
-        <v>627.2483</v>
+        <v>148.4262</v>
       </c>
       <c r="J13" s="1">
-        <v>117839.1921</v>
+        <v>117360.1517</v>
       </c>
       <c r="K13" s="1">
-        <v>113723.5294</v>
+        <v>114193.1798</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3144</v>
+        <v>10.3363</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9613.0864</v>
+        <v>-9651.9046</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0133</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.3176</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E14" s="1">
-        <v>11929.9611</v>
+        <v>11953.9121</v>
       </c>
       <c r="F14" s="1">
-        <v>-11929.9611</v>
+        <v>-11953.9121</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123088.5663</v>
+        <v>123089.4326</v>
       </c>
       <c r="I14" s="1">
-        <v>1014.1619</v>
+        <v>496.5216</v>
       </c>
       <c r="J14" s="1">
-        <v>124102.7283</v>
+        <v>123585.9542</v>
       </c>
       <c r="K14" s="1">
-        <v>123336.6157</v>
+        <v>123845.0844</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3384</v>
+        <v>10.3602</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123088.5663</v>
+        <v>123089.4326</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0292</v>
+        <v>-0.0296</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.8241</v>
       </c>
       <c r="C2" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D2" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.2543</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E3" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="F3" s="1">
-        <v>866.5624</v>
+        <v>871.9974999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10397.4464</v>
+        <v>10355.8981</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10397.4464</v>
+        <v>10355.8981</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9752.553599999999</v>
+        <v>-9833.429</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0397</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>10.5675</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E4" s="1">
-        <v>1790.4268</v>
+        <v>1794.0134</v>
       </c>
       <c r="F4" s="1">
-        <v>969.7042</v>
+        <v>960.134</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18920.3349</v>
+        <v>18920.3832</v>
       </c>
       <c r="I4" s="1">
-        <v>247.4464</v>
+        <v>166.571</v>
       </c>
       <c r="J4" s="1">
-        <v>19167.7813</v>
+        <v>19086.9542</v>
       </c>
       <c r="K4" s="1">
-        <v>19752.5536</v>
+        <v>19833.429</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0323</v>
+        <v>11.0553</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>249.4434</v>
+        <v>248.9443</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9998.0031</v>
+        <v>-9917.6268</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0603</v>
+        <v>-0.0623</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E5" s="1">
-        <v>2760.131</v>
+        <v>2754.1474</v>
       </c>
       <c r="F5" s="1">
-        <v>1028.3379</v>
+        <v>1026.2285</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>27510.2257</v>
+        <v>27395.78</v>
       </c>
       <c r="I5" s="1">
-        <v>249.4434</v>
+        <v>248.9443</v>
       </c>
       <c r="J5" s="1">
-        <v>27759.6691</v>
+        <v>27644.7243</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.869</v>
+        <v>10.8927</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10249.4434</v>
+        <v>-10248.9443</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0483</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.0064</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E6" s="1">
-        <v>3788.4689</v>
+        <v>3780.376</v>
       </c>
       <c r="F6" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>37908.9347</v>
+        <v>37752.3466</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37908.9347</v>
+        <v>37752.3466</v>
       </c>
       <c r="K6" s="1">
-        <v>40249.4434</v>
+        <v>40248.9443</v>
       </c>
       <c r="L6" s="1">
-        <v>10.6242</v>
+        <v>10.6468</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.004</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>10.0129</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E7" s="1">
-        <v>4787.8293</v>
+        <v>4777.733</v>
       </c>
       <c r="F7" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>47940.0556</v>
+        <v>47743.4078</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47940.0556</v>
+        <v>47743.4078</v>
       </c>
       <c r="K7" s="1">
-        <v>50249.4434</v>
+        <v>50248.9443</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4952</v>
+        <v>10.5173</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>1022.8866</v>
+        <v>1020.7015</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8977.1134</v>
+        <v>-8979.298500000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.4583</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E8" s="1">
-        <v>5786.5409</v>
+        <v>5774.4438</v>
       </c>
       <c r="F8" s="1">
-        <v>1053.9845</v>
+        <v>1051.6639</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60517.381</v>
+        <v>60270.18</v>
       </c>
       <c r="I8" s="1">
-        <v>1022.8866</v>
+        <v>1020.7015</v>
       </c>
       <c r="J8" s="1">
-        <v>61540.2675</v>
+        <v>61290.8815</v>
       </c>
       <c r="K8" s="1">
-        <v>60249.4434</v>
+        <v>60248.9443</v>
       </c>
       <c r="L8" s="1">
-        <v>10.412</v>
+        <v>10.4337</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11022.8866</v>
+        <v>-11020.7015</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0621</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.3341</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E9" s="1">
-        <v>6840.5255</v>
+        <v>6826.1077</v>
       </c>
       <c r="F9" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70690.6743</v>
+        <v>70400.37940000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70690.6743</v>
+        <v>70400.37940000001</v>
       </c>
       <c r="K9" s="1">
-        <v>71272.33</v>
+        <v>71269.6458</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4191</v>
+        <v>10.4407</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0119</v>
+        <v>-0.0125</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7808.1956</v>
+        <v>7791.8434</v>
       </c>
       <c r="F10" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>77180.8904</v>
+        <v>76864.977</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77180.8904</v>
+        <v>76864.977</v>
       </c>
       <c r="K10" s="1">
-        <v>81272.33</v>
+        <v>81269.6458</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4086</v>
+        <v>10.4301</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>3078.2365</v>
+        <v>3071.7485</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6921.7635</v>
+        <v>-6928.2515</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0435</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D11" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8819.8703</v>
+        <v>8801.495699999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1312.0879</v>
+        <v>1308.8109</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>87912.0576</v>
+        <v>87553.7586</v>
       </c>
       <c r="I11" s="1">
-        <v>3078.2365</v>
+        <v>3071.7485</v>
       </c>
       <c r="J11" s="1">
-        <v>90990.2941</v>
+        <v>90625.5071</v>
       </c>
       <c r="K11" s="1">
-        <v>91272.33</v>
+        <v>91269.6458</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3485</v>
+        <v>10.3698</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-13078.2365</v>
+        <v>-13071.7485</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0437</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.4908</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E12" s="1">
-        <v>10131.9583</v>
+        <v>10110.3066</v>
       </c>
       <c r="F12" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>106292.3478</v>
+        <v>105852.8876</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>106292.3478</v>
+        <v>105852.8876</v>
       </c>
       <c r="K12" s="1">
-        <v>104350.5664</v>
+        <v>104341.3943</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2992</v>
+        <v>10.3203</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0525</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.6308</v>
       </c>
       <c r="C13" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D13" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E13" s="1">
-        <v>11085.1744</v>
+        <v>11061.6184</v>
       </c>
       <c r="F13" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>117844.2723</v>
+        <v>117358.2406</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>117844.2723</v>
+        <v>117358.2406</v>
       </c>
       <c r="K13" s="1">
-        <v>114350.5664</v>
+        <v>114341.3943</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3156</v>
+        <v>10.3368</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0133</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.3176</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E14" s="1">
-        <v>12025.8374</v>
+        <v>12000.4004</v>
       </c>
       <c r="F14" s="1">
-        <v>-12025.8374</v>
+        <v>-12000.4004</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124077.78</v>
+        <v>123568.1234</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>124077.78</v>
+        <v>123568.1234</v>
       </c>
       <c r="K14" s="1">
-        <v>124350.5664</v>
+        <v>124341.3943</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3403</v>
+        <v>10.3614</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124077.78</v>
+        <v>123568.1234</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0295</v>
+        <v>-0.0298</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4453,7 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3505</v>
+        <v>10.3713</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3282</v>
+        <v>10.3497</v>
       </c>
       <c r="E3" s="1">
-        <v>10.3328</v>
+        <v>10.3549</v>
       </c>
       <c r="F3" s="1">
-        <v>10.3384</v>
+        <v>10.3602</v>
       </c>
       <c r="G3" s="1">
-        <v>10.3403</v>
+        <v>10.3614</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0396</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0203</v>
+        <v>0.0077</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0235</v>
+        <v>0.011</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0234</v>
+        <v>0.0107</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0229</v>
+        <v>0.0101</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0226</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1277</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1377</v>
+        <v>0.1376</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1371</v>
+        <v>0.1372</v>
       </c>
       <c r="E5" s="3">
         <v>0.1378</v>
       </c>
       <c r="F5" s="3">
+        <v>0.1381</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.1382</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.1383</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.4695</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.0004</v>
+        <v>-0.09180000000000001</v>
       </c>
       <c r="D6" s="4">
-        <v>0.0231</v>
+        <v>-0.0679</v>
       </c>
       <c r="E6" s="4">
-        <v>0.0222</v>
+        <v>-0.0696</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0189</v>
+        <v>-0.07439999999999999</v>
       </c>
       <c r="G6" s="4">
-        <v>0.0167</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0615</v>
+        <v>0.0535</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06660000000000001</v>
+        <v>0.0588</v>
       </c>
       <c r="E7" s="3">
-        <v>0.06560000000000001</v>
+        <v>0.0577</v>
       </c>
       <c r="F7" s="3">
-        <v>0.06419999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="G7" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4300.4819</v>
+        <v>4291.8494</v>
       </c>
       <c r="D8" s="1">
-        <v>4284.5256</v>
+        <v>4287.8731</v>
       </c>
       <c r="E8" s="1">
-        <v>4330.0055</v>
+        <v>4333.4441</v>
       </c>
       <c r="F8" s="1">
-        <v>4350.7776</v>
+        <v>4341.606</v>
       </c>
       <c r="G8" s="1">
-        <v>4350.5664</v>
+        <v>4341.3943</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P79_KFSDIV.xlsx
+++ b/output/1Y_P79_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8241</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2543</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.5675</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.967000000000001</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0064</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0129</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4583</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3341</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.884600000000001</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.967499999999999</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4908</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.6308</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.3176</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8241</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2543</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.5675</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.967000000000001</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0064</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0129</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4583</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3341</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.884600000000001</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.967499999999999</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4908</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.6308</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.3176</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8241</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2543</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.5675</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.967000000000001</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0064</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0129</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4583</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3341</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.884600000000001</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.967499999999999</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4908</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.6308</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.3176</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8241</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2543</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.5675</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.967000000000001</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0064</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0129</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4583</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3341</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.884600000000001</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.967499999999999</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4908</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.6308</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.3176</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8241</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2543</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.5675</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.967000000000001</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0064</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.0129</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4583</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3341</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.884600000000001</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.967499999999999</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4908</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.6308</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.3176</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5309.5117</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9929</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0653</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.036</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0063</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
